--- a/leveldb-nvmimm.xlsx
+++ b/leveldb-nvmimm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="9930"/>
+    <workbookView windowWidth="20070" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>将上层0~1 level的数据写到nvm中, 2~3level的数据写到ssd中</t>
   </si>
@@ -43,67 +43,49 @@
     <t>100K</t>
   </si>
   <si>
-    <t>9.314 micros/op;  104.9 MB/s</t>
-  </si>
-  <si>
-    <t>8.752 micros/op;  111.7 MB/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.352 micros/op;  117.0 MB/s</t>
+    <t>13.716 micros/op;   71.1 MB/s</t>
+  </si>
+  <si>
+    <t>12.843 micros/op;   76.0 MB/s</t>
+  </si>
+  <si>
+    <t>12.724 micros/op;   76.7 MB/s</t>
   </si>
   <si>
     <t>500K</t>
   </si>
   <si>
-    <t>8.103 micros/op;  120.6 MB/s</t>
-  </si>
-  <si>
-    <t>8.824 micros/op;  110.8 MB/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.276 micros/op;  118.1 MB/s</t>
+    <t>13.488 micros/op;   72.3 MB/s</t>
+  </si>
+  <si>
+    <t>13.469 micros/op;   72.4 MB/s</t>
+  </si>
+  <si>
+    <t>13.652 micros/op;   71.5 MB/s</t>
   </si>
   <si>
     <t>1000k</t>
   </si>
   <si>
-    <t>12.405 micros/op;   78.8 MB/s</t>
-  </si>
-  <si>
-    <t>12.811 micros/op;   76.3 MB/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16.592 micros/op;   58.9 MB/s</t>
-  </si>
-  <si>
     <t>DRAM为32MB, NVM为2地方MB;value: 4KB</t>
   </si>
   <si>
-    <t>25.827 micros/op;  148.6 MB/s</t>
-  </si>
-  <si>
-    <t>27.312 micros/op;  140.5 MB/s</t>
-  </si>
-  <si>
-    <t>26.068 micros/op;  147.2 MB/s</t>
-  </si>
-  <si>
-    <t>49.445 micros/op;   77.6 MB/s</t>
-  </si>
-  <si>
-    <t>48.978 micros/op;   78.4 MB/s</t>
-  </si>
-  <si>
-    <t>64.004 micros/op;   60.0 MB/s</t>
-  </si>
-  <si>
-    <t>68.687 micros/op;   55.9 MB/s</t>
-  </si>
-  <si>
-    <t>71.647 micros/op;   53.6 MB/s</t>
-  </si>
-  <si>
-    <t>113.405 micros/op;   33.8 MB/s</t>
+    <t>34.837 micros/op;  110.1 MB/s</t>
+  </si>
+  <si>
+    <t>35.621 micros/op;  107.7 MB/s</t>
+  </si>
+  <si>
+    <t>32.893 micros/op;  116.6 MB/s</t>
+  </si>
+  <si>
+    <t>56.378 micros/op;   68.1 MB/s</t>
+  </si>
+  <si>
+    <t>54.727 micros/op;   70.1 MB/s</t>
+  </si>
+  <si>
+    <t>67.197 micros/op;   57.1 MB/s</t>
   </si>
   <si>
     <t>DRAM为4MB, NVM为288MB;value:1KB</t>
@@ -112,121 +94,13 @@
     <t>注意：当DRAM为16MB时， nvm大概占500MB</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9.103 micros/op;  107.4 MB/s</t>
-  </si>
-  <si>
-    <t>10.333 micros/op;   94.6 MB/s</t>
-  </si>
-  <si>
-    <t>10.833 micros/op;   90.2 MB/s</t>
-  </si>
-  <si>
-    <t>12.251 micros/op;   79.8 MB/s</t>
-  </si>
-  <si>
-    <t>11.554 micros/op;   84.6 MB/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.818 micros/op;   61.8 MB/s</t>
-  </si>
-  <si>
-    <t>16.396 micros/op;   59.6 MB/s</t>
-  </si>
-  <si>
-    <t>16.004 micros/op;   61.1 MB/s</t>
-  </si>
-  <si>
-    <t>22.148 micros/op;   44.1 MB/s</t>
-  </si>
-  <si>
     <t>DRAM为4MB, NVM为2MB;value: 4KB</t>
   </si>
   <si>
-    <t>27.118 micros/op;  141.5 MB/s</t>
-  </si>
-  <si>
-    <t>28.839 micros/op;  133.1 MB/s</t>
-  </si>
-  <si>
-    <t>35.186 micros/op;  109.1 MB/s</t>
-  </si>
-  <si>
-    <t>62.403 micros/op;   61.5 MB/s</t>
-  </si>
-  <si>
-    <t>61.225 micros/op;   62.7 MB/s</t>
-  </si>
-  <si>
-    <t>77.458 micros/op;   49.6 MB/s</t>
-  </si>
-  <si>
-    <t>97.833 micros/op;   39.2 MB/s</t>
-  </si>
-  <si>
-    <t>96.863 micros/op;   39.6 MB/s</t>
-  </si>
-  <si>
-    <t>150.351 micros/op;   25.5 MB/s</t>
-  </si>
-  <si>
     <t>注意：当DRAM为4MB时， nvm大概占308MB</t>
   </si>
   <si>
-    <t>10.771 micros/op;   90.7 MB/s</t>
-  </si>
-  <si>
-    <t>9.894 micros/op;   98.8 MB/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.914 micros/op;   98.6 MB/s</t>
-  </si>
-  <si>
-    <t>17.729 micros/op;   55.1 MB/s</t>
-  </si>
-  <si>
-    <t>17.474 micros/op;   55.9 MB/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25.035 micros/op;   39.0 MB/s</t>
-  </si>
-  <si>
-    <t>27.189 micros/op;   35.9 MB/s</t>
-  </si>
-  <si>
-    <t>27.457 micros/op;   35.6 MB/s</t>
-  </si>
-  <si>
-    <t>38.061 micros/op;  25.7 MB/s</t>
-  </si>
-  <si>
     <t>DRAM为4MB, NVM为2地方MB;value: 4KB</t>
-  </si>
-  <si>
-    <t>33.157 micros/op;  115.8 MB/s</t>
-  </si>
-  <si>
-    <t>35.721 micros/op;  107.5 MB/s</t>
-  </si>
-  <si>
-    <t>39.264 micros/op;   97.8 MB/s</t>
-  </si>
-  <si>
-    <t>79.875 micros/op;   48.1 MB/s</t>
-  </si>
-  <si>
-    <t>82.088 micros/op;   46.8 MB/s</t>
-  </si>
-  <si>
-    <t>111.437 micros/op;   34.4 MB/s</t>
-  </si>
-  <si>
-    <t>126.536 micros/op;   30.3 MB/s</t>
-  </si>
-  <si>
-    <t>124.142 micros/op;   30.9 MB/s</t>
-  </si>
-  <si>
-    <t>191.770 micros/op;   20.0 MB/s</t>
   </si>
 </sst>
 </file>
@@ -235,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -286,14 +160,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -302,37 +191,59 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +258,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -363,67 +290,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,25 +312,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,157 +456,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,15 +604,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +623,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -785,199 +691,167 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,7 +1280,7 @@
   <dimension ref="B1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1479,15 +1353,9 @@
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>19</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="9"/>
@@ -1499,7 +1367,7 @@
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="30"/>
     </row>
@@ -1522,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1536,28 +1404,22 @@
         <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="15"/>
@@ -1579,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="45.25" customHeight="1" spans="2:5">
@@ -1603,43 +1465,25 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>40</v>
-      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="9"/>
@@ -1651,7 +1495,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="16"/>
       <c r="D21" s="21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E21" s="30"/>
     </row>
@@ -1673,43 +1517,25 @@
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="2:5">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>50</v>
-      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="16"/>
@@ -1737,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="45.25" customHeight="1" spans="2:5">
@@ -1761,43 +1587,25 @@
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>57</v>
-      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="9"/>
@@ -1809,7 +1617,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="7"/>
       <c r="D35" s="26" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E35" s="30"/>
     </row>
@@ -1831,43 +1639,25 @@
       <c r="B37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="2:5">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/leveldb-nvmimm.xlsx
+++ b/leveldb-nvmimm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="9270"/>
+    <workbookView windowWidth="20070" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,25 +43,31 @@
     <t>100K</t>
   </si>
   <si>
-    <t>13.716 micros/op;   71.1 MB/s</t>
-  </si>
-  <si>
-    <t>12.843 micros/op;   76.0 MB/s</t>
-  </si>
-  <si>
-    <t>12.724 micros/op;   76.7 MB/s</t>
+    <t>(1)13.716 micros/op;   71.1 MB/s
+(2)13.349 micros/op;   73.1 MB/s</t>
+  </si>
+  <si>
+    <t>(1)12.843 micros/op;   76.0 MB/s
+(2)12.584 micros/op;   77.5 MB/s</t>
+  </si>
+  <si>
+    <t>(1)12.724 micros/op;   76.7 MB/s
+(2)12.768 micros/op;   76.4 MB/s</t>
   </si>
   <si>
     <t>500K</t>
   </si>
   <si>
-    <t>13.488 micros/op;   72.3 MB/s</t>
-  </si>
-  <si>
-    <t>13.469 micros/op;   72.4 MB/s</t>
-  </si>
-  <si>
-    <t>13.652 micros/op;   71.5 MB/s</t>
+    <t>(1)13.488 micros/op;   72.3 MB/s
+（2）13.458 micros/op;   72.5 MB/s</t>
+  </si>
+  <si>
+    <t>（1）13.469 micros/op;   72.4 MB/s
+（2）12.887 micros/op;   75.7 MB/s</t>
+  </si>
+  <si>
+    <t>（1）13.652 micros/op;   71.5 MB/s
+（2）13.977 micros/op;   69.8 MB/s</t>
   </si>
   <si>
     <t>1000k</t>
@@ -70,22 +76,28 @@
     <t>DRAM为32MB, NVM为2地方MB;value: 4KB</t>
   </si>
   <si>
-    <t>34.837 micros/op;  110.1 MB/s</t>
-  </si>
-  <si>
-    <t>35.621 micros/op;  107.7 MB/s</t>
-  </si>
-  <si>
-    <t>32.893 micros/op;  116.6 MB/s</t>
-  </si>
-  <si>
-    <t>56.378 micros/op;   68.1 MB/s</t>
-  </si>
-  <si>
-    <t>54.727 micros/op;   70.1 MB/s</t>
-  </si>
-  <si>
-    <t>67.197 micros/op;   57.1 MB/s</t>
+    <t>（1）34.837 micros/op;  110.1 MB/s
+（2）32.680 micros/op;  117.4 MB/s</t>
+  </si>
+  <si>
+    <t>（1）35.621 micros/op;  107.7 MB/s
+（2）33.178 micros/op;  115.6 MB/s</t>
+  </si>
+  <si>
+    <t>（1）32.893 micros/op;  116.6 MB/s
+（2）33.755 micros/op;  113.7 MB/s</t>
+  </si>
+  <si>
+    <t>（1）56.378 micros/op;   68.1 MB/s
+（2）51.216 micros/op;   74.9 MB/s</t>
+  </si>
+  <si>
+    <t>（1）54.727 micros/op;   70.1 MB/s
+（2）50.819 micros/op;   75.5 MB/s</t>
+  </si>
+  <si>
+    <t>（1）67.197 micros/op;   57.1 MB/s
+（2）61.452 micros/op;   62.4 MB/s</t>
   </si>
   <si>
     <t>DRAM为4MB, NVM为288MB;value:1KB</t>
@@ -109,8 +121,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -160,22 +172,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,13 +247,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,91 +279,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +616,78 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,45 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -672,190 +717,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,22 +890,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,6 +952,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,15 +962,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,11 +1306,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25"/>
@@ -1303,7 +1324,7 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1317,25 +1338,25 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" ht="40.5" customHeight="1" spans="2:5">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" ht="40.5" customHeight="1" spans="2:5">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1366,7 @@
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1353,23 +1374,23 @@
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="45.5" customHeight="1" spans="2:5">
       <c r="B9" s="6" t="s">
@@ -1381,11 +1402,11 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" ht="40.5" customHeight="1" spans="2:5">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1395,11 +1416,11 @@
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" ht="40.5" customHeight="1" spans="2:5">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1409,23 +1430,23 @@
       <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" ht="14.25" spans="2:5">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="15"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="2:5">
       <c r="B14" s="16"/>
@@ -1443,7 +1464,7 @@
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1457,7 +1478,7 @@
       <c r="D16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1467,7 +1488,7 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
@@ -1475,7 +1496,7 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
@@ -1483,13 +1504,13 @@
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="9"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="9"/>
@@ -1497,7 +1518,7 @@
       <c r="D21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" ht="45.5" customHeight="1" spans="2:5">
       <c r="B22" s="22" t="s">
@@ -1509,7 +1530,7 @@
       <c r="D22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1519,7 +1540,7 @@
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="32"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="6" t="s">
@@ -1527,15 +1548,15 @@
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:5">
       <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="33"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="16"/>
@@ -1565,7 +1586,7 @@
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1579,7 +1600,7 @@
       <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1587,17 +1608,17 @@
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="30"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="6" t="s">
@@ -1609,17 +1630,17 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="9"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" ht="25.5" customHeight="1" spans="2:5">
       <c r="B35" s="9"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" ht="45.5" customHeight="1" spans="2:5">
       <c r="B36" s="27" t="s">
@@ -1631,7 +1652,7 @@
       <c r="D36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1639,25 +1660,25 @@
       <c r="B37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="32"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="36"/>
+    </row>
+    <row r="39" ht="14.25" spans="2:5">
       <c r="B39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="33"/>
+      <c r="E39" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/leveldb-nvmimm.xlsx
+++ b/leveldb-nvmimm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="9930"/>
+    <workbookView windowWidth="20070" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>将上层0~1 level的数据写到nvm中, 2~3level的数据写到ssd中</t>
   </si>
@@ -100,13 +100,55 @@
 （2）61.452 micros/op;   62.4 MB/s</t>
   </si>
   <si>
+    <t>value:1KB</t>
+  </si>
+  <si>
+    <t>注意：当DRAM为4MB时， nvm大概占200MB</t>
+  </si>
+  <si>
+    <t>hot1_99</t>
+  </si>
+  <si>
+    <t>hot20_80</t>
+  </si>
+  <si>
+    <t>7.050 micros/op;  138.4 MB/s</t>
+  </si>
+  <si>
+    <t>10.287 micros/op;   94.8 MB/s</t>
+  </si>
+  <si>
+    <t>10.264 micros/op;   95.0 MB/s</t>
+  </si>
+  <si>
+    <t>9.575 micros/op;  101.9 MB/s</t>
+  </si>
+  <si>
+    <t>15.721 micros/op;   62.0 MB/s</t>
+  </si>
+  <si>
+    <t>16.199 micros/op;   60.2 MB/s</t>
+  </si>
+  <si>
+    <t>value: 4KB</t>
+  </si>
+  <si>
+    <t>19.669 micros/op;  195.1 MB/s</t>
+  </si>
+  <si>
+    <t>27.985 micros/op;  137.1 MB/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31.237 micros/op;  122.8 MB/s</t>
+  </si>
+  <si>
+    <t>27.763 micros/op;  138.2 MB/s</t>
+  </si>
+  <si>
+    <t>82.378 micros/op;   46.6 MB/s</t>
+  </si>
+  <si>
     <t>DRAM为4MB, NVM为288MB;value:1KB</t>
-  </si>
-  <si>
-    <t>注意：当DRAM为16MB时， nvm大概占500MB</t>
-  </si>
-  <si>
-    <t>DRAM为4MB, NVM为2MB;value: 4KB</t>
   </si>
   <si>
     <t>注意：当DRAM为4MB时， nvm大概占308MB</t>
@@ -121,8 +163,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -171,15 +213,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,23 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,9 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,67 +298,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,13 +366,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,13 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,151 +450,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,8 +665,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +676,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +725,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,49 +754,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,148 +764,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1300,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1473,32 +1515,44 @@
         <v>4</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" ht="40.5" customHeight="1" spans="2:5">
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" customHeight="1" spans="2:5">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" customHeight="1" spans="2:5">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1570,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="16"/>
       <c r="D21" s="21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="32"/>
     </row>
@@ -1524,33 +1578,43 @@
       <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>6</v>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" ht="40.5" customHeight="1" spans="2:5">
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="C23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" customHeight="1" spans="2:5">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="36"/>
     </row>
-    <row r="25" ht="14.25" spans="2:5">
+    <row r="25" ht="40.5" customHeight="1" spans="2:5">
       <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
@@ -1584,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="45.25" customHeight="1" spans="2:5">
@@ -1638,7 +1702,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
       <c r="D35" s="26" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E35" s="32"/>
     </row>

--- a/leveldb-nvmimm.xlsx
+++ b/leveldb-nvmimm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="9270"/>
+    <workbookView windowWidth="20070" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>将上层0~1 level的数据写到nvm中, 2~3level的数据写到ssd中</t>
   </si>
@@ -112,40 +112,55 @@
     <t>hot20_80</t>
   </si>
   <si>
-    <t>7.050 micros/op;  138.4 MB/s</t>
-  </si>
-  <si>
-    <t>10.287 micros/op;   94.8 MB/s</t>
-  </si>
-  <si>
-    <t>10.264 micros/op;   95.0 MB/s</t>
-  </si>
-  <si>
-    <t>9.575 micros/op;  101.9 MB/s</t>
-  </si>
-  <si>
-    <t>15.721 micros/op;   62.0 MB/s</t>
-  </si>
-  <si>
-    <t>16.199 micros/op;   60.2 MB/s</t>
+    <t>(1)7.050 micros/op;  138.4 MB/s
+(2) 8.952 micros/op;  109.0 MB/s</t>
+  </si>
+  <si>
+    <t>(1)10.287 micros/op;   94.8 MB/s
+(2)11.876 micros/op;   82.1 MB/s</t>
+  </si>
+  <si>
+    <t>(1)10.264 micros/op;   95.0 MB/s
+(2)11.993 micros/op;   81.3 MB/s</t>
+  </si>
+  <si>
+    <t>(1)9.575 micros/op;  101.9 MB/s
+(2)9.877 micros/op;   98.8 MB/s</t>
+  </si>
+  <si>
+    <t>(1)15.721 micros/op;   62.0 MB/s
+(2)15.518 micros/op;   62.9 MB/s</t>
+  </si>
+  <si>
+    <t>(1)16.199 micros/op;   60.2 MB/s
+(2)16.408 micros/op;   59.5 MB/s</t>
   </si>
   <si>
     <t>value: 4KB</t>
   </si>
   <si>
-    <t>19.669 micros/op;  195.1 MB/s</t>
-  </si>
-  <si>
-    <t>27.985 micros/op;  137.1 MB/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31.237 micros/op;  122.8 MB/s</t>
-  </si>
-  <si>
-    <t>27.763 micros/op;  138.2 MB/s</t>
-  </si>
-  <si>
-    <t>82.378 micros/op;   46.6 MB/s</t>
+    <t>(1)19.669 micros/op;  195.1 MB/s
+(2)22.573 micros/op;  170.0 MB/s</t>
+  </si>
+  <si>
+    <t>(1)27.985 micros/op;  137.1 MB/s
+(2)31.594 micros/op;  121.4 MB/s</t>
+  </si>
+  <si>
+    <t>(1) 31.237 micros/op;  122.8 MB/s
+(2)33.241 micros/op;  115.4 MB/s</t>
+  </si>
+  <si>
+    <t>（1）27.763 micros/op;  138.2 MB/s
+（2）27.125 micros/op;  141.4 MB/s</t>
+  </si>
+  <si>
+    <t>（1）82.378 micros/op;   46.6 MB/s
+（2）81.831 micros/op;   46.9 MB/s</t>
+  </si>
+  <si>
+    <t>（1）106.806 micros/op;   35.9 MB/s
+（2）110.059 micros/op;   34.9 MB/s</t>
   </si>
   <si>
     <t>DRAM为4MB, NVM为288MB;value:1KB</t>
@@ -162,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -213,6 +228,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -223,21 +252,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,16 +280,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,13 +341,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -304,54 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,181 +381,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,8 +680,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +711,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -724,167 +774,132 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,23 +908,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +988,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,7 +998,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,8 +1360,8 @@
   <sheetPr/>
   <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1366,7 +1384,7 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1380,7 +1398,7 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1394,7 +1412,7 @@
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1408,7 +1426,7 @@
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1418,13 +1436,13 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="9"/>
@@ -1432,7 +1450,7 @@
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="45.5" customHeight="1" spans="2:5">
       <c r="B9" s="6" t="s">
@@ -1444,7 +1462,7 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1458,7 +1476,7 @@
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1472,7 +1490,7 @@
       <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1482,7 +1500,7 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="15"/>
@@ -1506,7 +1524,7 @@
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1520,7 +1538,7 @@
       <c r="D16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1528,7 +1546,7 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -1542,13 +1560,13 @@
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1558,24 +1576,24 @@
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="9"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="9"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" ht="45.5" customHeight="1" spans="2:5">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -1584,7 +1602,7 @@
       <c r="D22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1592,10 +1610,10 @@
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -1606,13 +1624,15 @@
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" ht="40.5" customHeight="1" spans="2:5">
       <c r="B25" s="13" t="s">
@@ -1620,7 +1640,7 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="16"/>
@@ -1648,14 +1668,14 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="29" t="s">
         <v>41</v>
       </c>
+      <c r="E29" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" ht="45.25" customHeight="1" spans="2:5">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1664,7 +1684,7 @@
       <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1674,7 +1694,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="6" t="s">
@@ -1682,7 +1702,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="6" t="s">
@@ -1695,19 +1715,19 @@
     <row r="34" spans="2:5">
       <c r="B34" s="9"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="32"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" ht="25.5" customHeight="1" spans="2:5">
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="32"/>
+      <c r="D35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" ht="45.5" customHeight="1" spans="2:5">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -1716,7 +1736,7 @@
       <c r="D36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="34" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1724,17 +1744,17 @@
       <c r="B37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="36"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="36"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" ht="14.25" spans="2:5">
       <c r="B39" s="13" t="s">
@@ -1742,7 +1762,7 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="35"/>
+      <c r="E39" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/leveldb-nvmimm.xlsx
+++ b/leveldb-nvmimm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="9930"/>
+    <workbookView windowWidth="20070" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>将上层0~1 level的数据写到nvm中, 2~3level的数据写到ssd中</t>
   </si>
@@ -163,10 +163,13 @@
 （2）110.059 micros/op;   34.9 MB/s</t>
   </si>
   <si>
-    <t>DRAM为4MB, NVM为288MB;value:1KB</t>
-  </si>
-  <si>
-    <t>注意：当DRAM为4MB时， nvm大概占308MB</t>
+    <t xml:space="preserve">注意：当DRAM为4MB时， </t>
+  </si>
+  <si>
+    <t>19.789 micros/op;   49.3 MB/s（nvm为105M）</t>
+  </si>
+  <si>
+    <t>29.012 micros/op;   33.6 MB/s（nvm为128M）</t>
   </si>
   <si>
     <t>DRAM为4MB, NVM为2地方MB;value: 4KB</t>
@@ -177,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -236,6 +239,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,14 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,8 +268,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,54 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,32 +361,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,19 +384,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,37 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,121 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,11 +689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,37 +719,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,143 +743,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,19 +908,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1360,16 +1363,16 @@
   <sheetPr/>
   <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1668,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" ht="45.25" customHeight="1" spans="2:5">
@@ -1701,7 +1704,9 @@
         <v>12</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E32" s="33"/>
     </row>
     <row r="33" spans="2:5">
@@ -1709,7 +1714,9 @@
         <v>16</v>
       </c>
       <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5">
@@ -1722,7 +1729,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
       <c r="D35" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="33"/>
     </row>
